--- a/job.xlsx
+++ b/job.xlsx
@@ -49,7 +49,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
+    <x:t>pegasoftware</x:t>
   </x:si>
   <x:si>
     <x:t>job application</x:t>
@@ -175,7 +175,7 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
+    <x:t>pegasoftware1</x:t>
   </x:si>
   <x:si>
     <x:t>job application1</x:t>
@@ -605,7 +605,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.980625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>

--- a/job.xlsx
+++ b/job.xlsx
@@ -49,7 +49,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>pegasoftware</x:t>
+    <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>job application</x:t>
@@ -175,7 +175,7 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>pegasoftware1</x:t>
+    <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>job application1</x:t>
@@ -605,7 +605,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
